--- a/Conexionado.xlsx
+++ b/Conexionado.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="6675" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Nombre del pin</t>
   </si>
@@ -93,21 +93,9 @@
     <t>PA5</t>
   </si>
   <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
     <t>PC13</t>
   </si>
   <si>
-    <t>PB9</t>
-  </si>
-  <si>
     <t>PA14</t>
   </si>
   <si>
@@ -117,33 +105,9 @@
     <t>Azul</t>
   </si>
   <si>
-    <t>Lila</t>
-  </si>
-  <si>
-    <t>Gris</t>
-  </si>
-  <si>
-    <t>Blanco</t>
-  </si>
-  <si>
-    <t>Negro</t>
-  </si>
-  <si>
-    <t>Marrón</t>
-  </si>
-  <si>
-    <t>Rojo</t>
-  </si>
-  <si>
     <t>Verde</t>
   </si>
   <si>
-    <t>Amarillo</t>
-  </si>
-  <si>
-    <t>Naranja</t>
-  </si>
-  <si>
     <t>Blue Pill</t>
   </si>
   <si>
@@ -156,28 +120,19 @@
     <t>GPIO</t>
   </si>
   <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t>CH2</t>
-  </si>
-  <si>
-    <t>CH3</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>CH5</t>
-  </si>
-  <si>
-    <t>CH6</t>
-  </si>
-  <si>
-    <t>CH0</t>
-  </si>
-  <si>
     <t>Violeta</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA12</t>
   </si>
 </sst>
 </file>
@@ -193,13 +148,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -330,8 +297,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,15 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,290 +647,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3"/>
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="C14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
